--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_266.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_266.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,412 +488,413 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1107692307692308</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(63.18, 66.1)]</t>
+          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[('0:00:08.080000', '0:00:16.640000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:10.937548', '0:00:16.810929')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:22.320000', '0:00:26.180000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4107142857142857</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['C', 'F', 'C', 'F', 'C', 'F', 'G', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
+          <t>[('0:00:17.965212', '0:00:37.110065')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:16.179070', '0:00:38.772086')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[('0:01:00.854263', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:46.060000', '0:00:53.660000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.42, 26.46)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.5, 5.58)]</t>
+          <t>[('0:00:32.380000', '0:00:46.680000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.780000', '0:01:54.140000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(35.14, 42.32)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(110.32, 122.84)]</t>
+          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -896,307 +902,268 @@
           <t>schubert-winterreise_26</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(124.92, 128.84)]</t>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1187888198757764</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.014823, 6.126439)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(43.26, 45.66)]</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1053361053361053</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[('0:00:12.394648', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:23.020000', '0:00:32.580000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(13.42, 26.46)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.36, 6.46)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (69.24, 75.88)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(118.44, 122.34)]</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.9, 101.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.82, 107.92)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
